--- a/datas/aa.xlsx
+++ b/datas/aa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Unitest\demo2\datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CBF6A3E-8CD8-4D04-A4FB-94115EF5823D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F028ADEF-7107-4593-A8E1-63E2F0FF40EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2988" windowWidth="22668" windowHeight="8616" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
@@ -1196,7 +1196,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -1528,7 +1528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACC3B519-A7DF-4598-866E-F80769175F36}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -1715,8 +1715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{307A5A02-84C7-4085-A482-2C6E0C0EA747}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2674,7 +2674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3760B7E3-A533-4497-B20F-612949DDB688}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
